--- a/Assignment 1 .xlsx
+++ b/Assignment 1 .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tears\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tears\Documents\GitHub\UDA_Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{186747AC-0B8E-45D6-8174-3F7D2BBB92C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5583B3-97B1-45FF-85F8-1F0D32FE2CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{419BE7FA-AE4C-45A5-8AD3-7DEF6248B4D8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>House number</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t xml:space="preserve">upgrade heating system </t>
+  </si>
+  <si>
+    <t>house 1</t>
   </si>
 </sst>
 </file>
@@ -161,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -172,14 +175,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -205,25 +224,6 @@
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -238,10 +238,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{404CA451-CB6C-4D4C-96C4-5DE9B4E6D268}" name="Table1" displayName="Table1" ref="A1:L6" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{404CA451-CB6C-4D4C-96C4-5DE9B4E6D268}" name="Table1" displayName="Table1" ref="A1:L6" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:L6" xr:uid="{404CA451-CB6C-4D4C-96C4-5DE9B4E6D268}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{02FFAEA9-BC80-410B-A033-FF27F127ADB9}" name="House number" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{02FFAEA9-BC80-410B-A033-FF27F127ADB9}" name="House number" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{54B2F2DE-C150-4414-8C90-82BAE19AE3DA}" name="Overall consumption in GJ/year"/>
     <tableColumn id="3" xr3:uid="{3B4BE8F3-FD62-4397-B910-13FF0DB9DA23}" name="Natural gas consumption in GJ/year"/>
     <tableColumn id="4" xr3:uid="{270D9B9C-80FA-4A17-9D87-1DF08337E1C0}" name="Electricity consumption in GJ/year"/>
@@ -259,9 +259,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -299,7 +299,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -405,7 +405,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -547,7 +547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -558,7 +558,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -596,28 +596,28 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B2">
         <v>146</v>
@@ -965,20 +965,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e77506a3-7792-472d-97b6-7343758e3ffd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e77506a3-7792-472d-97b6-7343758e3ffd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1000,14 +1000,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A021527E-280A-4EE6-A22D-B5C516F33F6F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A79E138-8C7C-4B4E-85B5-10434DE80E7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1021,4 +1013,12 @@
     <ds:schemaRef ds:uri="e77506a3-7792-472d-97b6-7343758e3ffd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A021527E-280A-4EE6-A22D-B5C516F33F6F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>